--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -452,6 +452,72 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -809,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3201,6 +3267,380 @@
         <v>776</v>
       </c>
     </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>40</v>
+      </c>
+      <c r="C141">
+        <v>95</v>
+      </c>
+      <c r="D141">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>40</v>
+      </c>
+      <c r="C142">
+        <v>125</v>
+      </c>
+      <c r="D142">
+        <v>30</v>
+      </c>
+      <c r="E142">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>205</v>
+      </c>
+      <c r="D143">
+        <v>50</v>
+      </c>
+      <c r="E143">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>40</v>
+      </c>
+      <c r="C144">
+        <v>156</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>40</v>
+      </c>
+      <c r="C145">
+        <v>141</v>
+      </c>
+      <c r="D145">
+        <v>40</v>
+      </c>
+      <c r="E145">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>40</v>
+      </c>
+      <c r="C146">
+        <v>141</v>
+      </c>
+      <c r="D146">
+        <v>40</v>
+      </c>
+      <c r="E146">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>40</v>
+      </c>
+      <c r="C147">
+        <v>137</v>
+      </c>
+      <c r="D147">
+        <v>40</v>
+      </c>
+      <c r="E147">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>40</v>
+      </c>
+      <c r="C148">
+        <v>160</v>
+      </c>
+      <c r="D148">
+        <v>40</v>
+      </c>
+      <c r="E148">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
+        <v>40</v>
+      </c>
+      <c r="C149">
+        <v>160</v>
+      </c>
+      <c r="D149">
+        <v>40</v>
+      </c>
+      <c r="E149">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>40</v>
+      </c>
+      <c r="C150">
+        <v>170</v>
+      </c>
+      <c r="D150">
+        <v>40</v>
+      </c>
+      <c r="E150">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
+        <v>40</v>
+      </c>
+      <c r="C151">
+        <v>121</v>
+      </c>
+      <c r="D151">
+        <v>40</v>
+      </c>
+      <c r="E151">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152">
+        <v>40</v>
+      </c>
+      <c r="C152">
+        <v>95</v>
+      </c>
+      <c r="D152">
+        <v>35</v>
+      </c>
+      <c r="E152">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153">
+        <v>45</v>
+      </c>
+      <c r="C153">
+        <v>147</v>
+      </c>
+      <c r="D153">
+        <v>45</v>
+      </c>
+      <c r="E153">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
+        <v>40</v>
+      </c>
+      <c r="C154">
+        <v>179</v>
+      </c>
+      <c r="D154">
+        <v>40</v>
+      </c>
+      <c r="E154">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155">
+        <v>40</v>
+      </c>
+      <c r="C155">
+        <v>144</v>
+      </c>
+      <c r="D155">
+        <v>40</v>
+      </c>
+      <c r="E155">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
+        <v>40</v>
+      </c>
+      <c r="C156">
+        <v>151</v>
+      </c>
+      <c r="D156">
+        <v>40</v>
+      </c>
+      <c r="E156">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="C157">
+        <v>127</v>
+      </c>
+      <c r="D157">
+        <v>40</v>
+      </c>
+      <c r="E157">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>140</v>
+      </c>
+      <c r="D158">
+        <v>40</v>
+      </c>
+      <c r="E158">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>40</v>
+      </c>
+      <c r="C159">
+        <v>162</v>
+      </c>
+      <c r="D159">
+        <v>40</v>
+      </c>
+      <c r="E159">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
+        <v>40</v>
+      </c>
+      <c r="C160">
+        <v>153</v>
+      </c>
+      <c r="D160">
+        <v>40</v>
+      </c>
+      <c r="E160">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161">
+        <v>40</v>
+      </c>
+      <c r="C161">
+        <v>148</v>
+      </c>
+      <c r="D161">
+        <v>40</v>
+      </c>
+      <c r="E161">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>40</v>
+      </c>
+      <c r="C162">
+        <v>169</v>
+      </c>
+      <c r="D162">
+        <v>40</v>
+      </c>
+      <c r="E162">
+        <v>772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3641,6 +3644,23 @@
         <v>772</v>
       </c>
     </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>40</v>
+      </c>
+      <c r="C163">
+        <v>118</v>
+      </c>
+      <c r="D163">
+        <v>40</v>
+      </c>
+      <c r="E163">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -521,6 +521,27 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -878,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3661,6 +3682,125 @@
         <v>780</v>
       </c>
     </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
+        <v>40</v>
+      </c>
+      <c r="C164">
+        <v>175</v>
+      </c>
+      <c r="D164">
+        <v>40</v>
+      </c>
+      <c r="E164">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>40</v>
+      </c>
+      <c r="C165">
+        <v>149</v>
+      </c>
+      <c r="D165">
+        <v>40</v>
+      </c>
+      <c r="E165">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>40</v>
+      </c>
+      <c r="C166">
+        <v>102</v>
+      </c>
+      <c r="D166">
+        <v>40</v>
+      </c>
+      <c r="E166">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
+        <v>40</v>
+      </c>
+      <c r="C167">
+        <v>136</v>
+      </c>
+      <c r="D167">
+        <v>40</v>
+      </c>
+      <c r="E167">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
+        <v>40</v>
+      </c>
+      <c r="C168">
+        <v>145</v>
+      </c>
+      <c r="D168">
+        <v>40</v>
+      </c>
+      <c r="E168">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>40</v>
+      </c>
+      <c r="C169">
+        <v>149</v>
+      </c>
+      <c r="D169">
+        <v>40</v>
+      </c>
+      <c r="E169">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
+        <v>40</v>
+      </c>
+      <c r="C170">
+        <v>101</v>
+      </c>
+      <c r="D170">
+        <v>40</v>
+      </c>
+      <c r="E170">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3801,6 +3804,23 @@
         <v>782</v>
       </c>
     </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>40</v>
+      </c>
+      <c r="C171">
+        <v>136</v>
+      </c>
+      <c r="D171">
+        <v>40</v>
+      </c>
+      <c r="E171">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,33 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3821,6 +3848,159 @@
         <v>789</v>
       </c>
     </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>40</v>
+      </c>
+      <c r="C172">
+        <v>202</v>
+      </c>
+      <c r="D172">
+        <v>40</v>
+      </c>
+      <c r="E172">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>40</v>
+      </c>
+      <c r="C173">
+        <v>150</v>
+      </c>
+      <c r="D173">
+        <v>40</v>
+      </c>
+      <c r="E173">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>40</v>
+      </c>
+      <c r="C174">
+        <v>104</v>
+      </c>
+      <c r="D174">
+        <v>40</v>
+      </c>
+      <c r="E174">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>40</v>
+      </c>
+      <c r="C175">
+        <v>152</v>
+      </c>
+      <c r="D175">
+        <v>40</v>
+      </c>
+      <c r="E175">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>40</v>
+      </c>
+      <c r="C176">
+        <v>166</v>
+      </c>
+      <c r="D176">
+        <v>40</v>
+      </c>
+      <c r="E176">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>40</v>
+      </c>
+      <c r="C177">
+        <v>125</v>
+      </c>
+      <c r="D177">
+        <v>40</v>
+      </c>
+      <c r="E177">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>40</v>
+      </c>
+      <c r="C178">
+        <v>155</v>
+      </c>
+      <c r="D178">
+        <v>40</v>
+      </c>
+      <c r="E178">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>40</v>
+      </c>
+      <c r="C179">
+        <v>151</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180">
+        <v>40</v>
+      </c>
+      <c r="C180">
+        <v>143</v>
+      </c>
+      <c r="D180">
+        <v>40</v>
+      </c>
+      <c r="E180">
+        <v>803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4001,6 +4004,23 @@
         <v>803</v>
       </c>
     </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181">
+        <v>40</v>
+      </c>
+      <c r="C181">
+        <v>173</v>
+      </c>
+      <c r="D181">
+        <v>40</v>
+      </c>
+      <c r="E181">
+        <v>806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,15 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4021,6 +4030,57 @@
         <v>806</v>
       </c>
     </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182">
+        <v>40</v>
+      </c>
+      <c r="C182">
+        <v>191</v>
+      </c>
+      <c r="D182">
+        <v>40</v>
+      </c>
+      <c r="E182">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+      <c r="C183">
+        <v>162</v>
+      </c>
+      <c r="D183">
+        <v>40</v>
+      </c>
+      <c r="E183">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184">
+        <v>40</v>
+      </c>
+      <c r="C184">
+        <v>163</v>
+      </c>
+      <c r="D184">
+        <v>40</v>
+      </c>
+      <c r="E184">
+        <v>814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4081,6 +4084,23 @@
         <v>814</v>
       </c>
     </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>40</v>
+      </c>
+      <c r="C185">
+        <v>125</v>
+      </c>
+      <c r="D185">
+        <v>35</v>
+      </c>
+      <c r="E185">
+        <v>821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4101,6 +4107,40 @@
         <v>821</v>
       </c>
     </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>45</v>
+      </c>
+      <c r="C186">
+        <v>145</v>
+      </c>
+      <c r="D186">
+        <v>45</v>
+      </c>
+      <c r="E186">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187">
+        <v>40</v>
+      </c>
+      <c r="C187">
+        <v>159</v>
+      </c>
+      <c r="D187">
+        <v>40</v>
+      </c>
+      <c r="E187">
+        <v>820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
